--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_100.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_100.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7971</v>
+        <v>1.9322</v>
       </c>
       <c r="J3" t="n">
-        <v>25.69</v>
+        <v>23.92</v>
       </c>
       <c r="K3" t="n">
-        <v>828.89</v>
+        <v>829.8099999999999</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>876.2428</v>
+        <v>932.4133</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6406</v>
+        <v>1.8111</v>
       </c>
       <c r="J4" t="n">
-        <v>22.78</v>
+        <v>14.26</v>
       </c>
       <c r="K4" t="n">
-        <v>671.13</v>
+        <v>463.72</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>819.809</v>
+        <v>851.5834</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>7.553</v>
+        <v>8.163600000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>27.05</v>
+        <v>26.59</v>
       </c>
       <c r="K5" t="n">
-        <v>3667.78</v>
+        <v>3897.05</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.27</v>
+        <v>7.99</v>
       </c>
       <c r="R5" t="n">
-        <v>3226.245</v>
+        <v>3357.8703</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>9.049099999999999</v>
+        <v>9.935</v>
       </c>
       <c r="J6" t="n">
-        <v>26.68</v>
+        <v>26.61</v>
       </c>
       <c r="K6" t="n">
-        <v>4334.22</v>
+        <v>4746.9</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="R6" t="n">
-        <v>2610.4208</v>
+        <v>2853.0079</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.142</v>
+        <v>4.5308</v>
       </c>
       <c r="J7" t="n">
-        <v>31.57</v>
+        <v>31.45</v>
       </c>
       <c r="K7" t="n">
-        <v>2347.29</v>
+        <v>2558.14</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.88</v>
+        <v>4.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1901.7136</v>
+        <v>2076.8937</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>48.0823</v>
+        <v>53.3586</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="K8" t="n">
-        <v>3542.02</v>
+        <v>3913.44</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8.970000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>3496.4917</v>
+        <v>3835.2351</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>11.7955</v>
+        <v>14.5586</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="n">
-        <v>404.31</v>
+        <v>474.5</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="R9" t="n">
-        <v>326.1015</v>
+        <v>379.7498</v>
       </c>
     </row>
   </sheetData>
